--- a/win8.1.xlsx
+++ b/win8.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFD465F-54C6-4BAC-B424-D34A1B215A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16384DFF-002B-44BE-B624-692419A9C8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26850" yWindow="1275" windowWidth="14280" windowHeight="9045" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40200" yWindow="960" windowWidth="14280" windowHeight="9045" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="167">
   <si>
     <t>header1</t>
   </si>
@@ -144,17 +144,10 @@
     <t>win8.1-1-8.png</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Office2016のインストール&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>win10-2-3.png</t>
   </si>
   <si>
     <t>win10-2-4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒いウィンドウが表示され、その中でソフトのインストール処理が進みます。
- 15分位かかりますので、そのまま待ってください。 「インストールが完了しました」と出たら、終了です。   </t>
   </si>
   <si>
     <t>chartn</t>
@@ -510,9 +503,6 @@
   </t>
   </si>
   <si>
-    <t>win10-6-22.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">最後に、VPNについて。「もみじ」で成績を見る時や、前述のプリンタ利用の時など、いくつかのサービスは学内ネットワークからしか利用ができません。自宅や帰省先でこういったサービスを使いたい場合は、VPNが使えます。設定のしかたについてはメディアセンターの説明ページを参照してください。
   </t>
   </si>
@@ -564,11 +554,6 @@
   </si>
   <si>
     <t xml:space="preserve">USBメモリを認識すると、FIRST LECというウィンドウが開きます。その中に入っている「Windows」というフォルダをデスクトップにドラッグしてコピーしましょう。 
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中に入っている「install」をダブルクリック。Officeのインストールが始まります。 
   </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -773,6 +758,49 @@
     <rPh sb="30" eb="31">
       <t>サキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;OfficeProplusのインストール&lt;/h2&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">黒いウィンドウが表示され、その中でソフトのインストール処理が進みます。
+ 15分位かかりますので、そのまま待ってください。 「インストールが完了しました」と出たら、終了です。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中に入っている「install」を右クリック。メニューが出るので、その中にある「管理者として実行」を選ぶと、Officeのインストールが始まります。 
+  </t>
+    <rPh sb="18" eb="19">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このような画面になったらできあがりです。「閉じる」をクリックして作業終了。
+  </t>
+  </si>
+  <si>
+    <t>win10-2-09.svg</t>
+  </si>
+  <si>
+    <t>win10-6-24a.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1204,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1212,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1287,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -1382,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1425,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1433,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1458,7 +1486,7 @@
     </row>
     <row r="8" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1511,7 +1539,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1519,27 +1547,27 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1547,46 +1575,46 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1594,18 +1622,33 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1630,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1638,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1662,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1676,13 +1719,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1690,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1704,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1718,13 +1761,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -1732,13 +1775,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1746,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1760,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +1839,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1804,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1820,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1828,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1842,13 +1885,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1856,13 +1899,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1870,13 +1913,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1884,13 +1927,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1898,13 +1941,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1912,13 +1955,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1926,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -1940,21 +1983,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1962,13 +2005,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -1976,13 +2019,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -1990,13 +2033,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2004,13 +2047,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2018,13 +2061,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2037,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2054,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2062,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2078,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2086,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2097,7 +2140,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2119,13 +2162,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2133,13 +2176,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2147,13 +2190,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2161,13 +2204,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2175,18 +2218,18 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2208,13 +2251,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2222,13 +2265,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2236,13 +2279,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2250,13 +2293,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
         <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2264,13 +2307,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2278,13 +2321,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2292,13 +2335,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2306,18 +2349,18 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2339,13 +2382,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2353,13 +2396,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2367,13 +2410,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2381,13 +2424,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2395,13 +2438,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2409,18 +2452,18 @@
         <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2428,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2442,13 +2485,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2456,13 +2499,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2470,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2530,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2541,17 +2584,17 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="117" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2559,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/win8.1.xlsx
+++ b/win8.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9F965A-1DBD-455D-9C1C-B0CE7A30EAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB5C29-D398-45EB-8D5D-A2A92B0DF5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="195">
   <si>
     <t>header1</t>
   </si>
@@ -146,12 +146,6 @@
     <t>win10-4-4.png</t>
   </si>
   <si>
-    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
-これで接続の設定が完了しました。
-接続が完了すると「接続済み」と表示されます。
-   </t>
-  </si>
-  <si>
     <t>win10-4-5.png</t>
   </si>
   <si>
@@ -177,10 +171,6 @@
   </si>
   <si>
     <t>win8.1-1-13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新が「自動」になっていることを確認しましょう。
- 「Windows更新時に他のMicrosoft製品の更新プログラムも入手します」も必ずチェックを入れておいてください。 これにより，Officeや，ウイルス対策ソフトWindows Defenderも自動で更新されます。   </t>
   </si>
   <si>
     <t>win8.1-1-14.png</t>
@@ -200,14 +190,7 @@
     <t>win8.1-1-15.png</t>
   </si>
   <si>
-    <t xml:space="preserve">すると、図のように Defenderの画面が開きます。
- 「定義の更新」をクリックすると、ウイルス定義ファイルが最新のものになります。   </t>
-  </si>
-  <si>
     <t>win10-5-8.png</t>
-  </si>
-  <si>
-    <t>win8.1-1-16.png</t>
   </si>
   <si>
     <t>電子メールやクラウドストレージが使えるOffice365、オンライン履修登録などをおこなう「もみじ」、オンライン学習支援システムのBb9など、大学で提供されているネットワークサービスを使えるように設定します。</t>
@@ -277,20 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">次に、Officeのライセンス認証をします。ソフトウェアが正当なコピーであることを確認し、PCで使えるようにするための処理です。
- Officeに含まれるアプリを起動しましょう。どれでもよいのですが、ここではExcel を起動します。 左下のWindowsマークをクリックし、表示されるメニューから「Excel」を探してクリックしましょう。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Officeの正当な利用者であることを示すために、広大の学生であることを証明する必要があります。
-「サインインしてOffieを設定する」で「サインイン」をクリックしましょう。
-  </t>
-    <rPh sb="63" eb="65">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-5-23.svg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -335,59 +304,6 @@
   </si>
   <si>
     <t>win10-5-17.svg</t>
-  </si>
-  <si>
-    <t>「ライセンス契約に同意します」で「同意する」をクリックします。
-※本来は「利用許諾契約書を読む」で契約事項を読んでから同意するものですが、ここではそこまでしません。「ファイル」→「アカウント」→「Excelのバージョン情報」と辿ることで、いつでも読めます。
-これでOfficeを使用するための準備が完了しました。&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
-&lt;/span&gt;
-以上でこの章の作業は終了です。</t>
-    <rPh sb="6" eb="8">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホンライ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キョダク</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ケイヤクショ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ドウイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>タド</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win10-5-13a.svg</t>
@@ -1095,13 +1011,6 @@
     <t>win10-6-06.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">メールの画面が開きます。
-大学からの電子メールでの連絡は、広大メールで来ます。
-常にメールチェックするようにしてください。&lt;span class="check"&gt;check-10&lt;/span&gt;
-スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
-  </si>
-  <si>
     <t>win10-6-07.svg</t>
   </si>
   <si>
@@ -1131,12 +1040,6 @@
   </si>
   <si>
     <t>win10-6-10.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-11&lt;/span&gt;
-履修登録をしたり、成績を確認することができます。
-また「掲示」では、授業や学部からの連絡が表示されます。
-  </t>
   </si>
   <si>
     <t>win10-6-11.svg</t>
@@ -1241,16 +1144,6 @@
   </si>
   <si>
     <t>win10-6-22.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このようなパネルが表示されます。
-まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
-次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
-右下の「保存」ボタンをクリックすれば保存されます。
-第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
-です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-12&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>win10-6-23.svg</t>
@@ -1764,6 +1657,48 @@
   </si>
   <si>
     <t>FRESTA-TEXT-2020 Win8.1 App.A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">メールの画面が開きます。
+大学からの電子メールでの連絡は、広大メールで来ます。
+常にメールチェックするようにしてください。&lt;span class="check"&gt;check-9&lt;/span&gt;
+スマホのOutlookアプリでも、複雑な設定は必要なくメールの送受信が可能です。ここは必携PC設定の手順を示していますので、Web版をお知らせしましたが、スマホ版の方が使いやすく、新規メールが届いた時の通知もありますので、おすすめです。
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">するとこのような画面になります。&lt;span class="check"&gt;check-10&lt;/span&gt;
+履修登録をしたり、成績を確認することができます。
+また「掲示」では、授業や学部からの連絡が表示されます。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようなパネルが表示されます。
+まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
+次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
+右下の「保存」ボタンをクリックすれば保存されます。
+第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
+です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">すると、図のように Defenderの画面が開きます。
+ 「定義の更新」をクリックすると、ウイルス定義ファイルが最新のものになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新が「自動」になっていることを確認しましょう。
+ 「Windows更新時に他のMicrosoft製品の更新プログラムも入手します」も必ずチェックを入れておいてください。 これにより，Officeや，ウイルス対策ソフトWindows Defenderも自動で更新されます。    &lt;span class="check"&gt;check-4,5,6&lt;span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
+これで接続の設定が完了しました。
+接続が完了すると「接続済み」と表示されます。 &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
+   </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1787,18 +1722,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1819,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1828,10 +1757,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2189,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2213,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2227,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2247,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2385,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2426,17 +2351,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2444,13 +2369,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2458,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2528,13 +2453,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2545,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2572,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -2596,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2607,7 +2532,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2615,13 +2540,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2629,13 +2554,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2643,27 +2568,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -2671,13 +2596,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2685,13 +2610,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2699,110 +2624,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="91" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2815,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A15" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2832,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2856,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -2864,7 +2697,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2875,12 +2708,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="117" x14ac:dyDescent="0.2">
@@ -2888,50 +2721,50 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -2939,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -2953,18 +2786,18 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -2972,21 +2805,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -2994,13 +2827,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3008,13 +2841,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3022,13 +2855,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3036,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3050,13 +2883,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3070,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3087,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3095,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3111,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3119,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3130,7 +2963,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3152,13 +2985,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3166,18 +2999,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,13 +3032,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3213,21 +3046,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3235,13 +3068,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3249,13 +3082,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3263,13 +3096,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3277,13 +3110,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3291,13 +3124,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3305,18 +3138,18 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,13 +3171,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="65" x14ac:dyDescent="0.2">
@@ -3352,13 +3185,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3366,18 +3199,18 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3399,13 +3232,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3413,13 +3246,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3427,13 +3260,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3441,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
@@ -3455,13 +3288,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3469,13 +3302,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3483,13 +3316,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3497,13 +3330,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3511,13 +3344,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3525,13 +3358,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
@@ -3539,18 +3372,18 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3558,7 +3391,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -3571,14 +3404,14 @@
       <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>172</v>
+      <c r="B42" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>82</v>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3586,13 +3419,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3600,13 +3433,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3614,13 +3447,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
@@ -3629,6 +3462,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3650,10 +3484,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3677,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3685,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3696,17 +3530,17 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3714,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -3733,8 +3567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8688E79E-BA85-4A4F-AB04-EBD4E6D84055}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3750,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3758,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,7 +3608,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3782,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3793,20 +3627,20 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3814,13 +3648,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3828,37 +3662,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3866,23 +3700,23 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/win8.1.xlsx
+++ b/win8.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB5C29-D398-45EB-8D5D-A2A92B0DF5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7A70A-51CC-4E44-804F-E54D606CDA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29295" yWindow="2070" windowWidth="17925" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37590" yWindow="1050" windowWidth="13425" windowHeight="10575" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
   <si>
     <t>header1</t>
   </si>
@@ -1069,84 +1069,7 @@
     <t>win10-6-16.svg</t>
   </si>
   <si>
-    <t xml:space="preserve">2回目からはログインしたら、この画面が出ます。
-真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
-ここに並んでいるコースは、あなたが受講する授業に関連したものと、そうでないものがあります。今並んでいるものを簡単に説明すると：
-&lt;dl&gt;&lt;dt&gt;大学教育入門&lt;/dt&gt;
-&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt;
-&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
-&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届け」を提出する必要があります。このコースでは、点検届けが提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
-&lt;dt&gt;Information Security and Compliance (情報セキュリティ・コンプライアンス)&lt;/dt&gt;
-&lt;dd&gt;「情報セキュリティ・コンプライアンス講習」は、広島大学でパソコンやネットワークを安全に使うための講座です。学生だけでなく、教職員を含めた全構成員必修の内容です。講習は、教室での講義とオンライン学習（このコース）からなっています。6月末までにこのコースの中にある確認テストに合格し、「&lt;em&gt;アカウント利用確認&lt;/em&gt;
-」の手続きをおこなわないと、アカウントがロックされ、メール等が使えなくなります。&lt;/dd&gt;
- &lt;/dl&gt;
-  </t>
-    <rPh sb="383" eb="385">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="386" eb="388">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="389" eb="390">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="401" eb="402">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="410" eb="411">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>win10-6-17.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bb9で配布されている教材を開けることを確認するため、「大学教育入門」のコースをみてみましょう。
-転入生の方は、「大学教育入門」がありませんので、「Information Security and Compliance」のコースを開いて、スライドなどがみられることを確認してください。
- 「大学教育入門」では、授業に参加する前に各自必携PCに教材をダウンロードしておくことが求められています。先ほど開いたメールにその旨の指示が来ていたと思います。
-ここでは、第1週に実施される講義の資料をダウンロードする手順を紹介しておきます。
-まず、コース一覧から「2020大学教育入門...」をクリックしてコースを開きましょう。
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>win10-6-18.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">左メニューの「テキスト・スライド資料」をクリックすると右側にフォルダが表示されます。各週の資料がまとめられていますね。
-「第1章　大学で何を学ぶか（各学部・プログラム）」をクリックして開きましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-19.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フォルダの中には三つのファイルがありました。
-「第1章テキスト (PDF)」の内容を確認してみましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-20.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
-内容を確認したら、上の方の閲覧履歴が出てるところの「第1章...」をクリックして前の画面に戻りましょう。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-21.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面でリンクを右クリック→保存とすることです。
-「第1章テキスト (PDF)」を左クリックして表示されるメニューから「対象をファイルに保存」とします。
-  </t>
-  </si>
-  <si>
-    <t>win10-6-22.svg</t>
-  </si>
-  <si>
-    <t>win10-6-23.svg</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;おまけ&lt;/h2&gt;</t>
@@ -1675,30 +1598,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">すると、図のように Defenderの画面が開きます。
+ 「定義の更新」をクリックすると、ウイルス定義ファイルが最新のものになります。   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新が「自動」になっていることを確認しましょう。
+ 「Windows更新時に他のMicrosoft製品の更新プログラムも入手します」も必ずチェックを入れておいてください。 これにより，Officeや，ウイルス対策ソフトWindows Defenderも自動で更新されます。    &lt;span class="check"&gt;check-4,5,6&lt;span&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
+これで接続の設定が完了しました。
+接続が完了すると「接続済み」と表示されます。 &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
+   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2回目からはログインしたら、この画面が出ます。
+真ん中の「コース一覧」に、あなたがアクセスできるコースが表示されています。
+これらは、あなたの履修課目に関する授業支援や、広島大学において自習すべき教材などのコースです。新入生共通で表示されるものを簡単に説明すると：
+&lt;dl&gt;
+&lt;dt&gt;ノートパソコン点検届&lt;/dt&gt;
+&lt;dd&gt;あなたの必携PCが、きちんと大学で使える状態になっているか確認するため、大学に「ノートパソコン点検届」を提出する必要があります。このコースでは、点検届が提出できます。&lt;strong&gt;このテキストによる設定・点検を済ませたあと、できるだけ早くにこのコースを開いて点検届を提出してください。&lt;/strong&gt;&lt;/dd&gt;
+&lt;dt&gt;大学教育入門&lt;/dt&gt;
+&lt;dd&gt;「大学教育入門」は、大学で学ぶにあたり必要な事柄や、広島大学特有の事情について学習する授業です。全学部生必修です。このコースでは、授業の各週で使う資料をダウンロードしたり、確認テストを受験したりします。&lt;/dd&gt; &lt;/dl&gt;
+  &lt;p class="spl"&gt;※今年の「大学教育入門」は、新型コロナウィルス対策のために受講方法が例年と異なります。「もみじ」などでの案内によく注意してください。&lt;/p&gt;</t>
+    <rPh sb="71" eb="73">
+      <t>リシュウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジシュウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>シンニュウセイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="471" eb="473">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="475" eb="477">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="477" eb="479">
+      <t>キョウイク</t>
+    </rPh>
+    <rPh sb="479" eb="481">
+      <t>ニュウモン</t>
+    </rPh>
+    <rPh sb="484" eb="486">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="499" eb="501">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="504" eb="506">
+      <t>レイネン</t>
+    </rPh>
+    <rPh sb="507" eb="508">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="527" eb="529">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9で配布されている教材をダウンロードできることを確認するため、「ノートパソコン点検届」のコースをみてみましょう。
+まず、コース一覧から「ノートパソコン点検届2020」をクリックしてコースを開きましょう。
+  </t>
+    <rPh sb="41" eb="43">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">左メニューの「教材」をクリックすると右側にフォルダが表示されます。いちばん上は、点検届を提出するためのリンクです。
+２番目にある「点検届ワークシート/Checklist worksheet」をクリックして開きましょう。
+  </t>
+    <rPh sb="7" eb="9">
+      <t>キョウザイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>トドケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このようにPDFファイルの内容が表示されます。使っているソフト（「環境」といったりしますね）によっては、画面に直接表示されない場合もあります。そのときは、「ここをクリックして〇〇を開いてください」をクリックします。
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-31.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">掲載されているファイルを保存（ダウンロード）する一番簡単な方法は、この画面で表示内容を右クリックして保存することです。
+左クリックして表示されるメニューから「名前を付けて保存」をクリックします。
+  </t>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-32.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">このようなパネルが表示されます。
 まず、保存されるファイルの名称と種類を確認しましょう。Edgeを使っていると、教員がつけたファイル名がここに出ているはずです。出ていなかったら、適切な名前を記入してください。ファイル形式も「PDF」になっていることを確認しましょう。HTMLとか別のものになっている場合は、違う場所で右クリックしていた可能性があります。
 次にファイルが保存されるフォルダを確認します。初期状態では「ダウンロード」フォルダです。わかりやすい場所にこれ用のフォルダを作ってそこに保存するのも良いでしょう。「ダウンロード」以外のフォルダに保存したい場合は、左側の欄を利用してフォルダを指定できます。指定したフォルダが、図の「(2) 保存先の...」のところに表示されていることを確認しましょう。
 右下の「保存」ボタンをクリックすれば保存されます。
-第1週の授業で説明されるのは&lt;em&gt;第1章と第6章&lt;/em&gt;
-です。これらの章のファイルを同様にして保存してください。&lt;span class="check"&gt;check-11&lt;/span&gt;
-  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">すると、図のように Defenderの画面が開きます。
- 「定義の更新」をクリックすると、ウイルス定義ファイルが最新のものになります。   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新が「自動」になっていることを確認しましょう。
- 「Windows更新時に他のMicrosoft製品の更新プログラムも入手します」も必ずチェックを入れておいてください。 これにより，Officeや，ウイルス対策ソフトWindows Defenderも自動で更新されます。    &lt;span class="check"&gt;check-4,5,6&lt;span&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この画面になったら「接続」をクリックしてください。
-これで接続の設定が完了しました。
-接続が完了すると「接続済み」と表示されます。 &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
-   </t>
+&lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-33.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このテキストの第１章からここまで順に進んでいれば、点検届チェックリストがすべてチェックできているはずです。&lt;strong&gt;Bb9の「ノートパソコン点検届」コースを開いて、点検届を提出しましょう！&lt;/strong&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>トドケ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2172,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2453,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2582,7 +2738,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -2624,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -2903,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3110,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -3185,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -3283,32 +3439,29 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="234" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="182" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="104" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3316,13 +3469,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
@@ -3330,13 +3480,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="52" x14ac:dyDescent="0.2">
@@ -3344,46 +3494,37 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="156" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="169" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3405,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -3419,13 +3560,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="104" x14ac:dyDescent="0.2">
@@ -3433,13 +3574,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="91" x14ac:dyDescent="0.2">
@@ -3447,13 +3588,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
@@ -3484,10 +3625,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3535,7 +3676,7 @@
     </row>
     <row r="8" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3584,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3592,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3608,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3616,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -3632,15 +3773,15 @@
     </row>
     <row r="8" spans="1:4" ht="104" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -3648,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3662,29 +3803,29 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.2">
@@ -3711,12 +3852,12 @@
     </row>
     <row r="16" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/win8.1.xlsx
+++ b/win8.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seigo Kishiba\Documents\GitHub\fresta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC7A70A-51CC-4E44-804F-E54D606CDA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6399322-1C34-45A3-AF63-0798C3A3D86D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37590" yWindow="1050" windowWidth="13425" windowHeight="10575" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32385" yWindow="3390" windowWidth="13425" windowHeight="10575" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <sheet name="ch7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="194">
   <si>
     <t>header1</t>
   </si>
@@ -1844,17 +1845,16 @@
       <t>トドケ</t>
     </rPh>
     <rPh sb="89" eb="91">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>スス</t>
-    </rPh>
+      <t>テイシュツツカバアイスス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-35.svg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win10-6-34.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3059,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3474,6 +3474,9 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -3520,6 +3523,9 @@
     <row r="39" spans="1:4" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
